--- a/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C44BA93F-F1D1-4DBC-A19A-A26106ED2560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E963B4DD-A6E7-4459-BFDA-E59F97770C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F87CB30D-F310-4D25-88CC-54C756B98329}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D4A93D7-2282-45DF-81B1-228B203B95EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="401">
-  <si>
-    <t>Población según la frecuencia de consumición de refrescos con azucar en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="397">
+  <si>
+    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2015 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>38,81%</t>
   </si>
   <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
   </si>
   <si>
     <t>48,71%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,1108 +134,1096 @@
     <t>16,04%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
+    <t>21,8%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
   </si>
   <si>
     <t>16,31%</t>
   </si>
   <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1650,7 +1638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4136B3-D3F4-4E79-8FDE-156A94351067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1A3EE7-025B-49B7-9120-C2C8BB641427}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1957,19 +1945,19 @@
         <v>86413</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>41</v>
@@ -1978,13 +1966,13 @@
         <v>47158</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -1993,13 +1981,13 @@
         <v>39644</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>80</v>
@@ -2008,7 +1996,7 @@
         <v>86801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>57</v>
@@ -2115,10 +2103,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2121,13 @@
         <v>76281</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -2148,13 +2136,13 @@
         <v>85315</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2163,13 +2151,13 @@
         <v>161596</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2172,13 @@
         <v>96592</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>89</v>
@@ -2199,13 +2187,13 @@
         <v>95005</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>180</v>
@@ -2214,10 +2202,10 @@
         <v>191596</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>86</v>
@@ -2277,7 +2265,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>76</v>
@@ -2307,7 +2295,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -2316,13 +2304,13 @@
         <v>142580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2378,7 +2366,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2378,13 @@
         <v>69488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -2405,13 +2393,13 @@
         <v>109253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -2420,13 +2408,13 @@
         <v>178741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2429,13 @@
         <v>80354</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -2456,13 +2444,13 @@
         <v>81894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -2471,13 +2459,13 @@
         <v>162248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2492,13 +2480,13 @@
         <v>94688</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>87</v>
@@ -2507,13 +2495,13 @@
         <v>83895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -2522,13 +2510,13 @@
         <v>178583</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2543,13 +2531,13 @@
         <v>56227</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -2558,13 +2546,13 @@
         <v>55464</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -2573,19 +2561,19 @@
         <v>111691</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -2594,13 +2582,13 @@
         <v>13198</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2609,13 +2597,13 @@
         <v>5803</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -2624,13 +2612,13 @@
         <v>19001</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2674,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2698,13 +2686,13 @@
         <v>155108</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2713,13 +2701,13 @@
         <v>182544</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>312</v>
@@ -2728,13 +2716,13 @@
         <v>337652</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2737,13 @@
         <v>64824</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>69</v>
@@ -2764,13 +2752,13 @@
         <v>75768</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>129</v>
@@ -2779,13 +2767,13 @@
         <v>140592</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,10 +2791,10 @@
         <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -2815,13 +2803,13 @@
         <v>42359</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>81</v>
@@ -2830,13 +2818,13 @@
         <v>81401</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2839,13 @@
         <v>32494</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2866,13 +2854,13 @@
         <v>21778</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -2881,19 +2869,19 @@
         <v>54272</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>76</v>
@@ -2902,13 +2890,13 @@
         <v>78496</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -2917,13 +2905,13 @@
         <v>61492</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
@@ -2932,13 +2920,13 @@
         <v>139988</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,7 +2982,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3006,13 +2994,13 @@
         <v>60297</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -3021,13 +3009,13 @@
         <v>76787</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
@@ -3036,13 +3024,13 @@
         <v>137083</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3045,13 @@
         <v>37657</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -3072,13 +3060,13 @@
         <v>53612</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -3087,13 +3075,13 @@
         <v>91269</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3096,13 @@
         <v>31385</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -3123,13 +3111,13 @@
         <v>26995</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -3138,13 +3126,13 @@
         <v>58379</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3147,13 @@
         <v>42290</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -3174,13 +3162,13 @@
         <v>30978</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>74</v>
@@ -3189,19 +3177,19 @@
         <v>73268</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>38</v>
@@ -3210,13 +3198,13 @@
         <v>39592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -3225,13 +3213,13 @@
         <v>30216</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -3240,13 +3228,13 @@
         <v>69808</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,7 +3290,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3314,13 +3302,13 @@
         <v>124868</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>125</v>
@@ -3329,13 +3317,13 @@
         <v>133688</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -3344,13 +3332,13 @@
         <v>258556</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3353,13 @@
         <v>40730</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -3380,13 +3368,13 @@
         <v>45175</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>84</v>
@@ -3395,13 +3383,13 @@
         <v>85905</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3416,13 +3404,13 @@
         <v>29524</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>43</v>
@@ -3431,13 +3419,13 @@
         <v>44051</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -3446,13 +3434,13 @@
         <v>73575</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,13 +3455,13 @@
         <v>33152</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -3482,13 +3470,13 @@
         <v>26191</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -3497,19 +3485,19 @@
         <v>59342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>269</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>35</v>
@@ -3518,13 +3506,13 @@
         <v>34849</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -3533,13 +3521,13 @@
         <v>24010</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M38" s="7">
         <v>60</v>
@@ -3548,13 +3536,13 @@
         <v>58859</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3610,7 +3598,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3622,13 +3610,13 @@
         <v>224167</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>240</v>
@@ -3637,13 +3625,13 @@
         <v>267933</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
         <v>440</v>
@@ -3652,13 +3640,13 @@
         <v>492100</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,13 +3661,13 @@
         <v>112828</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>291</v>
+        <v>188</v>
       </c>
       <c r="H41" s="7">
         <v>120</v>
@@ -3688,13 +3676,13 @@
         <v>127991</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="M41" s="7">
         <v>217</v>
@@ -3703,13 +3691,13 @@
         <v>240819</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3712,13 @@
         <v>123079</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>84</v>
@@ -3739,13 +3727,13 @@
         <v>86420</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>192</v>
@@ -3754,13 +3742,13 @@
         <v>209499</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>306</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3763,13 @@
         <v>89361</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="H43" s="7">
         <v>68</v>
@@ -3790,13 +3778,13 @@
         <v>71003</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="M43" s="7">
         <v>147</v>
@@ -3805,19 +3793,19 @@
         <v>160365</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" s="7">
         <v>84</v>
@@ -3826,13 +3814,13 @@
         <v>93399</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H44" s="7">
         <v>121</v>
@@ -3841,13 +3829,13 @@
         <v>122506</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>318</v>
+        <v>55</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M44" s="7">
         <v>205</v>
@@ -3856,13 +3844,13 @@
         <v>215905</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,7 +3906,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3930,13 +3918,13 @@
         <v>195794</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H46" s="7">
         <v>197</v>
@@ -3945,13 +3933,13 @@
         <v>232267</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>385</v>
@@ -3960,13 +3948,13 @@
         <v>428061</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>122</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3969,13 @@
         <v>90077</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>335</v>
+        <v>38</v>
       </c>
       <c r="H47" s="7">
         <v>86</v>
@@ -3996,13 +3984,13 @@
         <v>94470</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M47" s="7">
         <v>174</v>
@@ -4011,13 +3999,13 @@
         <v>184546</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>340</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4020,13 @@
         <v>156348</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="H48" s="7">
         <v>157</v>
@@ -4047,13 +4035,13 @@
         <v>171929</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M48" s="7">
         <v>306</v>
@@ -4062,13 +4050,13 @@
         <v>328277</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>85</v>
+        <v>339</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4071,13 @@
         <v>193020</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H49" s="7">
         <v>195</v>
@@ -4098,13 +4086,13 @@
         <v>204210</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M49" s="7">
         <v>382</v>
@@ -4113,19 +4101,19 @@
         <v>397230</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="7">
         <v>133</v>
@@ -4134,13 +4122,13 @@
         <v>138432</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H50" s="7">
         <v>119</v>
@@ -4149,13 +4137,13 @@
         <v>122315</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="M50" s="7">
         <v>252</v>
@@ -4164,13 +4152,13 @@
         <v>260747</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4226,13 @@
         <v>1067371</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H52" s="7">
         <v>1176</v>
@@ -4253,13 +4241,13 @@
         <v>1300804</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M52" s="7">
         <v>2197</v>
@@ -4268,13 +4256,13 @@
         <v>2368175</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4277,13 @@
         <v>533743</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="H53" s="7">
         <v>554</v>
@@ -4304,13 +4292,13 @@
         <v>588165</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M53" s="7">
         <v>1055</v>
@@ -4319,13 +4307,13 @@
         <v>1121907</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>380</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4328,13 @@
         <v>617773</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H54" s="7">
         <v>580</v>
@@ -4355,13 +4343,13 @@
         <v>603212</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>166</v>
+        <v>377</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M54" s="7">
         <v>1171</v>
@@ -4370,13 +4358,13 @@
         <v>1220985</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>165</v>
+        <v>339</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4379,13 @@
         <v>625919</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="H55" s="7">
         <v>550</v>
@@ -4406,13 +4394,13 @@
         <v>562697</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="M55" s="7">
         <v>1149</v>
@@ -4421,19 +4409,19 @@
         <v>1188616</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>394</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="7">
         <v>497</v>
@@ -4442,13 +4430,13 @@
         <v>526300</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H56" s="7">
         <v>460</v>
@@ -4457,13 +4445,13 @@
         <v>467390</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>52</v>
+        <v>391</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="M56" s="7">
         <v>957</v>
@@ -4472,13 +4460,13 @@
         <v>993690</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4522,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E963B4DD-A6E7-4459-BFDA-E59F97770C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CE5DEE-61C1-4FBB-8832-E1723F2C134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D4A93D7-2282-45DF-81B1-228B203B95EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E2D1AD7-C6BE-471E-8C12-E293581AE94C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="397">
-  <si>
-    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2015 (Tasa respuesta: 99,39%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="403">
+  <si>
+    <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>38,81%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
   </si>
   <si>
     <t>48,71%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,28 +134,28 @@
     <t>16,04%</t>
   </si>
   <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>Tres o más veces a la semana</t>
@@ -164,1066 +164,1084 @@
     <t>18,55%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>7,46%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>14,84%</t>
   </si>
   <si>
-    <t>12,22%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>18,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
+    <t>15,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1638,7 +1656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1A3EE7-025B-49B7-9120-C2C8BB641427}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF58C46-A2C2-4A9D-9C28-0117E249ECD7}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,19 +1963,19 @@
         <v>86413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>41</v>
@@ -1966,13 +1984,13 @@
         <v>47158</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -1981,13 +1999,13 @@
         <v>39644</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>80</v>
@@ -1996,13 +2014,13 @@
         <v>86801</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,13 +2035,13 @@
         <v>293761</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>277</v>
@@ -2032,13 +2050,13 @@
         <v>288703</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>543</v>
@@ -2047,18 +2065,18 @@
         <v>582464</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2070,13 +2088,13 @@
         <v>123634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -2085,13 +2103,13 @@
         <v>157703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>258</v>
@@ -2100,13 +2118,13 @@
         <v>281337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,13 +2139,13 @@
         <v>76281</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -2136,13 +2154,13 @@
         <v>85315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2151,13 +2169,13 @@
         <v>161596</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2172,13 +2190,13 @@
         <v>96592</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>89</v>
@@ -2187,13 +2205,13 @@
         <v>95005</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>180</v>
@@ -2202,13 +2220,13 @@
         <v>191596</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,13 +2241,13 @@
         <v>124893</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -2238,13 +2256,13 @@
         <v>121141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -2253,19 +2271,19 @@
         <v>246035</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>76</v>
@@ -2274,13 +2292,13 @@
         <v>81176</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -2289,13 +2307,13 @@
         <v>61405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -2304,13 +2322,13 @@
         <v>142580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2343,13 @@
         <v>502575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>482</v>
@@ -2340,13 +2358,13 @@
         <v>520568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>957</v>
@@ -2355,18 +2373,18 @@
         <v>1023144</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2378,13 +2396,13 @@
         <v>69488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -2393,13 +2411,13 @@
         <v>109253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -2408,13 +2426,13 @@
         <v>178741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2429,13 +2447,13 @@
         <v>80354</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -2444,13 +2462,13 @@
         <v>81894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -2459,13 +2477,13 @@
         <v>162248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,13 +2498,13 @@
         <v>94688</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>87</v>
@@ -2495,13 +2513,13 @@
         <v>83895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -2510,13 +2528,13 @@
         <v>178583</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2549,13 @@
         <v>56227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -2546,13 +2564,13 @@
         <v>55464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -2561,19 +2579,19 @@
         <v>111691</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -2582,13 +2600,13 @@
         <v>13198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2597,13 +2615,13 @@
         <v>5803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -2612,13 +2630,13 @@
         <v>19001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2651,13 @@
         <v>313955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>332</v>
@@ -2648,13 +2666,13 @@
         <v>336309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>662</v>
@@ -2663,18 +2681,18 @@
         <v>650264</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2686,13 +2704,13 @@
         <v>155108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2701,13 +2719,13 @@
         <v>182544</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>312</v>
@@ -2716,13 +2734,13 @@
         <v>337652</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,13 +2755,13 @@
         <v>64824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>69</v>
@@ -2752,13 +2770,13 @@
         <v>75768</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>129</v>
@@ -2767,13 +2785,13 @@
         <v>140592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,10 +2809,10 @@
         <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -2803,13 +2821,13 @@
         <v>42359</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>81</v>
@@ -2818,13 +2836,13 @@
         <v>81401</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2857,13 @@
         <v>32494</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2854,13 +2872,13 @@
         <v>21778</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -2869,19 +2887,19 @@
         <v>54272</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>76</v>
@@ -2890,13 +2908,13 @@
         <v>78496</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -2905,13 +2923,13 @@
         <v>61492</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>136</v>
@@ -2920,13 +2938,13 @@
         <v>139988</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,13 +2959,13 @@
         <v>369964</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>356</v>
@@ -2956,13 +2974,13 @@
         <v>383941</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>710</v>
@@ -2971,18 +2989,18 @@
         <v>753905</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2994,13 +3012,13 @@
         <v>60297</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>77</v>
@@ -3009,13 +3027,13 @@
         <v>76787</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>139</v>
@@ -3024,13 +3042,13 @@
         <v>137083</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3063,13 @@
         <v>37657</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -3060,13 +3078,13 @@
         <v>53612</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -3075,13 +3093,13 @@
         <v>91269</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3114,13 @@
         <v>31385</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -3111,13 +3129,13 @@
         <v>26995</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -3126,13 +3144,13 @@
         <v>58379</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>21</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3165,13 @@
         <v>42290</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -3162,13 +3180,13 @@
         <v>30978</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>74</v>
@@ -3177,19 +3195,19 @@
         <v>73268</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>38</v>
@@ -3198,13 +3216,13 @@
         <v>39592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -3213,13 +3231,13 @@
         <v>30216</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -3228,13 +3246,13 @@
         <v>69808</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3267,13 @@
         <v>211221</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>223</v>
@@ -3264,13 +3282,13 @@
         <v>218587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>435</v>
@@ -3279,18 +3297,18 @@
         <v>429808</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3302,13 +3320,13 @@
         <v>124868</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H34" s="7">
         <v>125</v>
@@ -3317,13 +3335,13 @@
         <v>133688</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -3332,13 +3350,13 @@
         <v>258556</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,13 +3371,13 @@
         <v>40730</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -3368,13 +3386,13 @@
         <v>45175</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M35" s="7">
         <v>84</v>
@@ -3383,13 +3401,13 @@
         <v>85905</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3422,13 @@
         <v>29524</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H36" s="7">
         <v>43</v>
@@ -3419,13 +3437,13 @@
         <v>44051</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -3434,13 +3452,13 @@
         <v>73575</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3473,13 @@
         <v>33152</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -3470,13 +3488,13 @@
         <v>26191</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>73</v>
+        <v>270</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -3485,19 +3503,19 @@
         <v>59342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>102</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>35</v>
@@ -3506,13 +3524,13 @@
         <v>34849</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>100</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -3521,13 +3539,13 @@
         <v>24010</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>60</v>
@@ -3536,13 +3554,13 @@
         <v>58859</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3575,13 @@
         <v>263123</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>263</v>
@@ -3572,13 +3590,13 @@
         <v>273115</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>522</v>
@@ -3587,18 +3605,18 @@
         <v>536238</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3610,13 +3628,13 @@
         <v>224167</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H40" s="7">
         <v>240</v>
@@ -3625,13 +3643,13 @@
         <v>267933</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M40" s="7">
         <v>440</v>
@@ -3640,13 +3658,13 @@
         <v>492100</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,13 +3679,13 @@
         <v>112828</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="H41" s="7">
         <v>120</v>
@@ -3676,13 +3694,13 @@
         <v>127991</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M41" s="7">
         <v>217</v>
@@ -3691,13 +3709,13 @@
         <v>240819</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3712,13 +3730,13 @@
         <v>123079</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H42" s="7">
         <v>84</v>
@@ -3727,13 +3745,13 @@
         <v>86420</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
       <c r="M42" s="7">
         <v>192</v>
@@ -3742,13 +3760,13 @@
         <v>209499</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>48</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3781,13 @@
         <v>89361</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>301</v>
+        <v>172</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>223</v>
+        <v>306</v>
       </c>
       <c r="H43" s="7">
         <v>68</v>
@@ -3778,13 +3796,13 @@
         <v>71003</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M43" s="7">
         <v>147</v>
@@ -3793,19 +3811,19 @@
         <v>160365</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>84</v>
@@ -3814,13 +3832,13 @@
         <v>93399</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>309</v>
+        <v>162</v>
       </c>
       <c r="H44" s="7">
         <v>121</v>
@@ -3829,13 +3847,13 @@
         <v>122506</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>205</v>
@@ -3844,13 +3862,13 @@
         <v>215905</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3883,13 @@
         <v>642835</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>633</v>
@@ -3880,13 +3898,13 @@
         <v>675853</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>1201</v>
@@ -3895,18 +3913,18 @@
         <v>1318688</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3918,13 +3936,13 @@
         <v>195794</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="H46" s="7">
         <v>197</v>
@@ -3933,13 +3951,13 @@
         <v>232267</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M46" s="7">
         <v>385</v>
@@ -3948,13 +3966,13 @@
         <v>428061</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3987,13 @@
         <v>90077</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="H47" s="7">
         <v>86</v>
@@ -3984,13 +4002,13 @@
         <v>94470</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="M47" s="7">
         <v>174</v>
@@ -3999,13 +4017,13 @@
         <v>184546</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>331</v>
+        <v>55</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>250</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4038,13 @@
         <v>156348</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H48" s="7">
         <v>157</v>
@@ -4035,13 +4053,13 @@
         <v>171929</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M48" s="7">
         <v>306</v>
@@ -4050,13 +4068,13 @@
         <v>328277</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,13 +4089,13 @@
         <v>193020</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H49" s="7">
         <v>195</v>
@@ -4086,13 +4104,13 @@
         <v>204210</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M49" s="7">
         <v>382</v>
@@ -4101,19 +4119,19 @@
         <v>397230</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>133</v>
@@ -4122,13 +4140,13 @@
         <v>138432</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H50" s="7">
         <v>119</v>
@@ -4137,13 +4155,13 @@
         <v>122315</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M50" s="7">
         <v>252</v>
@@ -4152,13 +4170,13 @@
         <v>260747</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4191,13 @@
         <v>773671</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>754</v>
@@ -4188,13 +4206,13 @@
         <v>825191</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>1499</v>
@@ -4203,13 +4221,13 @@
         <v>1598862</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,13 +4244,13 @@
         <v>1067371</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H52" s="7">
         <v>1176</v>
@@ -4241,13 +4259,13 @@
         <v>1300804</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="M52" s="7">
         <v>2197</v>
@@ -4256,13 +4274,13 @@
         <v>2368175</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,13 +4295,13 @@
         <v>533743</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H53" s="7">
         <v>554</v>
@@ -4292,13 +4310,13 @@
         <v>588165</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>370</v>
+        <v>59</v>
       </c>
       <c r="M53" s="7">
         <v>1055</v>
@@ -4307,13 +4325,13 @@
         <v>1121907</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,13 +4346,13 @@
         <v>617773</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>375</v>
+        <v>93</v>
       </c>
       <c r="H54" s="7">
         <v>580</v>
@@ -4343,13 +4361,13 @@
         <v>603212</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>314</v>
+        <v>383</v>
       </c>
       <c r="M54" s="7">
         <v>1171</v>
@@ -4358,13 +4376,13 @@
         <v>1220985</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4397,13 @@
         <v>625919</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H55" s="7">
         <v>550</v>
@@ -4394,13 +4412,13 @@
         <v>562697</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M55" s="7">
         <v>1149</v>
@@ -4409,19 +4427,19 @@
         <v>1188616</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>55</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>497</v>
@@ -4430,13 +4448,13 @@
         <v>526300</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="H56" s="7">
         <v>460</v>
@@ -4445,13 +4463,13 @@
         <v>467390</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="M56" s="7">
         <v>957</v>
@@ -4460,13 +4478,13 @@
         <v>993690</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4499,13 @@
         <v>3371106</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>3320</v>
@@ -4496,13 +4514,13 @@
         <v>3522268</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>6529</v>
@@ -4511,18 +4529,18 @@
         <v>6893373</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3CE5DEE-61C1-4FBB-8832-E1723F2C134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{70159363-E341-4ECE-BF8A-D218277B308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9E2D1AD7-C6BE-471E-8C12-E293581AE94C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{520AC6B8-5075-46C4-9331-50CAF2B73673}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="401">
   <si>
     <t>Población según la frecuencia de consumo de refrescos con azúcar en 2016 (Tasa respuesta: 99,39%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>38,81%</t>
   </si>
   <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
   </si>
   <si>
     <t>48,71%</t>
   </si>
   <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>10,55%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,1081 +134,1084 @@
     <t>16,04%</t>
   </si>
   <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>20,95%</t>
   </si>
   <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>36,93%</t>
   </si>
   <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
   </si>
   <si>
     <t>15,83%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>16,7%</t>
   </si>
   <si>
-    <t>15,31%</t>
+    <t>17,93%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>15,38%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>17,03%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
     <t>17,71%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>17,24%</t>
@@ -1217,31 +1220,22 @@
     <t>16,32%</t>
   </si>
   <si>
-    <t>18,17%</t>
+    <t>18,19%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>14,32%</t>
-  </si>
-  <si>
     <t>16,84%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1656,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF58C46-A2C2-4A9D-9C28-0117E249ECD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B972F8B-901A-4DB5-9498-41BF1FAD1A69}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2014,13 +2008,13 @@
         <v>86801</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2029,13 @@
         <v>293761</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>277</v>
@@ -2050,13 +2044,13 @@
         <v>288703</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>543</v>
@@ -2065,18 +2059,18 @@
         <v>582464</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2088,13 +2082,13 @@
         <v>123634</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>138</v>
@@ -2103,13 +2097,13 @@
         <v>157703</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>258</v>
@@ -2118,13 +2112,13 @@
         <v>281337</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2139,13 +2133,13 @@
         <v>76281</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -2154,13 +2148,13 @@
         <v>85315</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>149</v>
@@ -2169,13 +2163,13 @@
         <v>161596</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2184,13 @@
         <v>96592</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>89</v>
@@ -2205,13 +2199,13 @@
         <v>95005</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>180</v>
@@ -2220,13 +2214,13 @@
         <v>191596</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2235,13 @@
         <v>124893</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>117</v>
@@ -2256,13 +2250,13 @@
         <v>121141</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -2271,13 +2265,13 @@
         <v>246035</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2286,13 @@
         <v>81176</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -2307,13 +2301,13 @@
         <v>61405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>135</v>
@@ -2322,13 +2316,13 @@
         <v>142580</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2337,13 @@
         <v>502575</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>482</v>
@@ -2358,13 +2352,13 @@
         <v>520568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>957</v>
@@ -2373,18 +2367,18 @@
         <v>1023144</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2396,13 +2390,13 @@
         <v>69488</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
@@ -2411,13 +2405,13 @@
         <v>109253</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -2426,13 +2420,13 @@
         <v>178741</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2441,13 @@
         <v>80354</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>78</v>
@@ -2462,13 +2456,13 @@
         <v>81894</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -2477,13 +2471,13 @@
         <v>162248</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2492,13 @@
         <v>94688</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>87</v>
@@ -2513,13 +2507,13 @@
         <v>83895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -2528,13 +2522,13 @@
         <v>178583</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2543,13 @@
         <v>56227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -2564,13 +2558,13 @@
         <v>55464</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -2579,13 +2573,13 @@
         <v>111691</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2594,13 @@
         <v>13198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2615,13 +2609,13 @@
         <v>5803</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -2630,13 +2624,13 @@
         <v>19001</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2645,13 @@
         <v>313955</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>332</v>
@@ -2666,13 +2660,13 @@
         <v>336309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>662</v>
@@ -2681,18 +2675,18 @@
         <v>650264</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2704,13 +2698,13 @@
         <v>155108</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>164</v>
@@ -2719,13 +2713,13 @@
         <v>182544</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>312</v>
@@ -2734,13 +2728,13 @@
         <v>337652</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2749,13 @@
         <v>64824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H23" s="7">
         <v>69</v>
@@ -2770,13 +2764,13 @@
         <v>75768</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>129</v>
@@ -2785,13 +2779,13 @@
         <v>140592</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,10 +2803,10 @@
         <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>42</v>
@@ -2821,13 +2815,13 @@
         <v>42359</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>81</v>
@@ -2836,13 +2830,13 @@
         <v>81401</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,10 +2854,10 @@
         <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2959,13 +2953,13 @@
         <v>369964</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>356</v>
@@ -2974,13 +2968,13 @@
         <v>383941</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>710</v>
@@ -2989,13 +2983,13 @@
         <v>753905</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3057,13 @@
         <v>37657</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -3078,13 +3072,13 @@
         <v>53612</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -3093,13 +3087,13 @@
         <v>91269</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3108,13 @@
         <v>31385</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>29</v>
@@ -3129,13 +3123,13 @@
         <v>26995</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="M30" s="7">
         <v>62</v>
@@ -3144,13 +3138,13 @@
         <v>58379</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,13 +3159,13 @@
         <v>42290</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>31</v>
@@ -3180,13 +3174,13 @@
         <v>30978</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M31" s="7">
         <v>74</v>
@@ -3195,13 +3189,13 @@
         <v>73268</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3210,13 @@
         <v>39592</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
         <v>31</v>
@@ -3231,13 +3225,13 @@
         <v>30216</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="M32" s="7">
         <v>69</v>
@@ -3246,13 +3240,13 @@
         <v>69808</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,13 +3261,13 @@
         <v>211221</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>223</v>
@@ -3282,13 +3276,13 @@
         <v>218587</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>435</v>
@@ -3297,18 +3291,18 @@
         <v>429808</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3320,13 +3314,13 @@
         <v>124868</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>125</v>
@@ -3335,13 +3329,13 @@
         <v>133688</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -3350,13 +3344,13 @@
         <v>258556</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,13 +3365,13 @@
         <v>40730</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>44</v>
@@ -3386,13 +3380,13 @@
         <v>45175</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>84</v>
@@ -3404,10 +3398,10 @@
         <v>188</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>100</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3416,13 @@
         <v>29524</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>43</v>
@@ -3437,13 +3431,13 @@
         <v>44051</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>70</v>
@@ -3452,13 +3446,13 @@
         <v>73575</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3467,13 @@
         <v>33152</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H37" s="7">
         <v>26</v>
@@ -3488,13 +3482,13 @@
         <v>26191</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -3503,13 +3497,13 @@
         <v>59342</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>174</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3518,13 @@
         <v>34849</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H38" s="7">
         <v>25</v>
@@ -3539,13 +3533,13 @@
         <v>24010</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>60</v>
@@ -3554,13 +3548,13 @@
         <v>58859</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3569,13 @@
         <v>263123</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>263</v>
@@ -3590,13 +3584,13 @@
         <v>273115</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>522</v>
@@ -3605,18 +3599,18 @@
         <v>536238</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3628,13 +3622,13 @@
         <v>224167</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H40" s="7">
         <v>240</v>
@@ -3643,13 +3637,13 @@
         <v>267933</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M40" s="7">
         <v>440</v>
@@ -3658,13 +3652,13 @@
         <v>492100</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3673,13 @@
         <v>112828</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H41" s="7">
         <v>120</v>
@@ -3694,13 +3688,13 @@
         <v>127991</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M41" s="7">
         <v>217</v>
@@ -3709,10 +3703,10 @@
         <v>240819</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>297</v>
@@ -3751,7 +3745,7 @@
         <v>302</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>192</v>
+        <v>303</v>
       </c>
       <c r="M42" s="7">
         <v>192</v>
@@ -3760,13 +3754,13 @@
         <v>209499</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3775,13 @@
         <v>89361</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>172</v>
+        <v>308</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H43" s="7">
         <v>68</v>
@@ -3796,13 +3790,13 @@
         <v>71003</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M43" s="7">
         <v>147</v>
@@ -3811,13 +3805,13 @@
         <v>160365</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3826,13 @@
         <v>93399</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="H44" s="7">
         <v>121</v>
@@ -3847,13 +3841,13 @@
         <v>122506</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>205</v>
@@ -3862,13 +3856,13 @@
         <v>215905</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3877,13 @@
         <v>642835</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>633</v>
@@ -3898,13 +3892,13 @@
         <v>675853</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>1201</v>
@@ -3913,18 +3907,18 @@
         <v>1318688</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3936,13 +3930,13 @@
         <v>195794</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>199</v>
+        <v>327</v>
       </c>
       <c r="H46" s="7">
         <v>197</v>
@@ -3951,13 +3945,13 @@
         <v>232267</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M46" s="7">
         <v>385</v>
@@ -3966,13 +3960,13 @@
         <v>428061</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>329</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3981,13 @@
         <v>90077</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H47" s="7">
         <v>86</v>
@@ -4002,13 +3996,13 @@
         <v>94470</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M47" s="7">
         <v>174</v>
@@ -4017,13 +4011,13 @@
         <v>184546</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4032,13 @@
         <v>156348</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H48" s="7">
         <v>157</v>
@@ -4053,13 +4047,13 @@
         <v>171929</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="M48" s="7">
         <v>306</v>
@@ -4068,13 +4062,13 @@
         <v>328277</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>345</v>
+        <v>85</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4083,13 @@
         <v>193020</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H49" s="7">
         <v>195</v>
@@ -4104,13 +4098,13 @@
         <v>204210</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>349</v>
+        <v>68</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M49" s="7">
         <v>382</v>
@@ -4119,13 +4113,13 @@
         <v>397230</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4134,13 @@
         <v>138432</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H50" s="7">
         <v>119</v>
@@ -4155,13 +4149,13 @@
         <v>122315</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M50" s="7">
         <v>252</v>
@@ -4170,13 +4164,13 @@
         <v>260747</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4185,13 @@
         <v>773671</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="7">
         <v>754</v>
@@ -4206,13 +4200,13 @@
         <v>825191</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M51" s="7">
         <v>1499</v>
@@ -4221,13 +4215,13 @@
         <v>1598862</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4238,13 @@
         <v>1067371</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H52" s="7">
         <v>1176</v>
@@ -4259,13 +4253,13 @@
         <v>1300804</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M52" s="7">
         <v>2197</v>
@@ -4274,13 +4268,13 @@
         <v>2368175</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4289,13 @@
         <v>533743</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H53" s="7">
         <v>554</v>
@@ -4310,13 +4304,13 @@
         <v>588165</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>376</v>
+        <v>246</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>59</v>
+        <v>377</v>
       </c>
       <c r="M53" s="7">
         <v>1055</v>
@@ -4325,13 +4319,13 @@
         <v>1121907</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>140</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4340,13 @@
         <v>617773</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="H54" s="7">
         <v>580</v>
@@ -4361,13 +4355,13 @@
         <v>603212</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>382</v>
+        <v>166</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
       <c r="M54" s="7">
         <v>1171</v>
@@ -4376,13 +4370,13 @@
         <v>1220985</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>386</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4400,10 +4394,10 @@
         <v>191</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H55" s="7">
         <v>550</v>
@@ -4412,13 +4406,13 @@
         <v>562697</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M55" s="7">
         <v>1149</v>
@@ -4427,13 +4421,13 @@
         <v>1188616</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,10 +4442,10 @@
         <v>526300</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>396</v>
@@ -4466,10 +4460,10 @@
         <v>397</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>398</v>
+        <v>52</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M56" s="7">
         <v>957</v>
@@ -4478,13 +4472,13 @@
         <v>993690</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4493,13 @@
         <v>3371106</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="7">
         <v>3320</v>
@@ -4514,13 +4508,13 @@
         <v>3522268</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M57" s="7">
         <v>6529</v>
@@ -4529,18 +4523,18 @@
         <v>6893373</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70159363-E341-4ECE-BF8A-D218277B308D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{263BA84D-6D7C-4145-8F6B-C2D2C2170A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{520AC6B8-5075-46C4-9331-50CAF2B73673}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7BBE9F34-1DBE-4A6E-802D-0889DC23EC4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -1650,7 +1650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B972F8B-901A-4DB5-9498-41BF1FAD1A69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1FC77D-14F9-4634-B3DA-4460A5F2AF5C}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4301,7 +4301,7 @@
         <v>554</v>
       </c>
       <c r="I53" s="7">
-        <v>588165</v>
+        <v>588164</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>376</v>
@@ -4505,7 +4505,7 @@
         <v>3320</v>
       </c>
       <c r="I57" s="7">
-        <v>3522268</v>
+        <v>3522267</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>59</v>
